--- a/business_KR/원가분석표.xlsx
+++ b/business_KR/원가분석표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.66.42778"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>원가분석표</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>2021.4.11</t>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t>100g</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -544,6 +550,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +795,84 @@
     </xf>
     <xf numFmtId="66" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,320 +1192,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A31" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
+    <col min="2" max="2" width="6.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="14.00500011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="5" width="12.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="14.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="12.38000011" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="7" width="12.38000011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="12.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="31.500000" customHeight="1">
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" s="45">
+        <v>2021</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="E7" s="5"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
+      <c r="A9" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200</v>
+      </c>
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="9">
-        <v>100</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="9">
         <v>200</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>200</v>
-      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
+      <c r="A13" s="12"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
+      <c r="A14" s="12"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
+      <c r="A15" s="12"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
+      <c r="A16" s="12"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="16"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="16"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="16"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="16"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="16"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="16"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="16"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="16"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="16"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="16"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="16"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="E28" s="5"/>
-      <c r="H28" s="7"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="E45" s="5"/>
+      <c r="H45" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/business_KR/원가분석표.xlsx
+++ b/business_KR/원가분석표.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>원가분석표</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2021.4.11</t>
+  </si>
+  <si>
+    <t>jkm</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
